--- a/Base/Excel Files/Initial Variables Template.xlsx
+++ b/Base/Excel Files/Initial Variables Template.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/Simulation app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Excel Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1665" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68EA8952-76A9-43F7-8DFA-E1BFBB53D8E8}"/>
+  <xr:revisionPtr revIDLastSave="2824" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED026DE9-E827-4FE3-9C6B-409DFF78E441}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="23">
   <si>
     <t>t</t>
   </si>
@@ -87,10 +96,13 @@
     <t>Bengals</t>
   </si>
   <si>
-    <t>Jaguars</t>
+    <t>Y</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>Chiefs</t>
+  </si>
+  <si>
+    <t>3066</t>
   </si>
 </sst>
 </file>
@@ -126,8 +138,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R141"/>
+  <dimension ref="A1:R163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="I140" sqref="I140"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -492,7 +505,7 @@
         <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -513,7 +526,7 @@
         <v>18</v>
       </c>
       <c r="N2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O2" t="s">
         <v>18</v>
@@ -530,7 +543,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>3600</v>
+        <v>3595</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -539,13 +552,13 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>
@@ -586,22 +599,22 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3564</v>
+        <v>3592</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>10</v>
       </c>
       <c r="D4">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
@@ -642,22 +655,22 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3530</v>
+        <v>3549</v>
       </c>
       <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
       <c r="D5">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
         <v>19</v>
@@ -698,22 +711,22 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>3495</v>
+        <v>3512</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
         <v>19</v>
@@ -754,7 +767,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>3448</v>
+        <v>3506</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -763,19 +776,19 @@
         <v>10</v>
       </c>
       <c r="D7">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7">
         <v>3</v>
@@ -810,28 +823,28 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>3412</v>
+        <v>3476</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="E8" t="s">
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8">
         <v>3</v>
@@ -866,28 +879,28 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>3365</v>
+        <v>3442</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="E9" t="s">
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9">
         <v>3</v>
@@ -922,28 +935,28 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>3361</v>
+        <v>3427</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
         <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10">
         <v>3</v>
@@ -978,7 +991,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>3349</v>
+        <v>3419</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -987,19 +1000,19 @@
         <v>10</v>
       </c>
       <c r="D11">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="E11" t="s">
         <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I11">
         <v>3</v>
@@ -1034,7 +1047,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>3309</v>
+        <v>3411</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1043,19 +1056,19 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
         <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I12">
         <v>3</v>
@@ -1090,28 +1103,28 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>3268</v>
+        <v>3376</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D13">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
         <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13">
         <v>3</v>
@@ -1146,28 +1159,28 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>3265</v>
+        <v>3352</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
         <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I14">
         <v>3</v>
@@ -1202,28 +1215,28 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>3225</v>
+        <v>3311</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
         <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15">
         <v>3</v>
@@ -1258,7 +1271,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>3182</v>
+        <v>3266</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1267,19 +1280,19 @@
         <v>10</v>
       </c>
       <c r="D16">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
         <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16">
         <v>3</v>
@@ -1314,34 +1327,34 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>3140</v>
+        <v>3261</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D17">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
         <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17">
         <v>3</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1350,7 +1363,7 @@
         <v>18</v>
       </c>
       <c r="M17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N17" t="s">
         <v>18</v>
@@ -1370,34 +1383,34 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>3098</v>
+        <v>3261</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D18">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="E18" t="s">
         <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18">
         <v>3</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1409,7 +1422,7 @@
         <v>18</v>
       </c>
       <c r="N18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O18" t="s">
         <v>18</v>
@@ -1426,16 +1439,16 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>3071</v>
+        <v>3261</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D19">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="E19" t="s">
         <v>19</v>
@@ -1444,16 +1457,16 @@
         <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I19">
         <v>3</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1482,16 +1495,16 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>3025</v>
+        <v>3243</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D20">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
         <v>19</v>
@@ -1500,16 +1513,16 @@
         <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I20">
         <v>3</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1538,34 +1551,34 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>3021</v>
+        <v>3197</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D21">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E21" t="s">
         <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I21">
         <v>3</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1594,34 +1607,34 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>2984</v>
+        <v>3156</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D22">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E22" t="s">
         <v>19</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I22">
         <v>3</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1650,34 +1663,34 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>2955</v>
+        <v>3113</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E23" t="s">
         <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I23">
         <v>3</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1706,7 +1719,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>2915</v>
+        <v>3100</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -1715,25 +1728,25 @@
         <v>10</v>
       </c>
       <c r="D24">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E24" t="s">
         <v>19</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G24" t="s">
         <v>19</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I24">
         <v>3</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1761,35 +1774,35 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>2905</v>
+      <c r="A25" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D25">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E25" t="s">
         <v>19</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G25" t="s">
         <v>19</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I25">
         <v>3</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1818,7 +1831,7 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>2872</v>
+        <v>3031</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -1827,25 +1840,25 @@
         <v>10</v>
       </c>
       <c r="D26">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E26" t="s">
         <v>19</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G26" t="s">
         <v>19</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I26">
         <v>3</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1874,34 +1887,34 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>2832</v>
+        <v>3002</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D27">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="E27" t="s">
         <v>19</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G27" t="s">
         <v>19</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I27">
         <v>3</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -1930,34 +1943,34 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>2792</v>
+        <v>2962</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E28" t="s">
         <v>19</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G28" t="s">
         <v>19</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I28">
         <v>3</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -1986,34 +1999,34 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>2788</v>
+        <v>2919</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D29">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="E29" t="s">
         <v>19</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G29" t="s">
         <v>19</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I29">
         <v>3</v>
       </c>
       <c r="J29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -2022,7 +2035,7 @@
         <v>18</v>
       </c>
       <c r="M29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N29" t="s">
         <v>18</v>
@@ -2042,28 +2055,28 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>2788</v>
+        <v>2879</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D30">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="E30" t="s">
         <v>19</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G30" t="s">
         <v>19</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I30">
         <v>3</v>
@@ -2081,7 +2094,7 @@
         <v>18</v>
       </c>
       <c r="N30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="O30" t="s">
         <v>18</v>
@@ -2098,28 +2111,28 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>2788</v>
+        <v>2874</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C31">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D31">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="E31" t="s">
         <v>19</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I31">
         <v>3</v>
@@ -2154,34 +2167,34 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>2747</v>
+        <v>2870</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D32">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E32" t="s">
         <v>19</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I32">
         <v>3</v>
       </c>
       <c r="J32">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -2190,7 +2203,7 @@
         <v>18</v>
       </c>
       <c r="M32" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N32" t="s">
         <v>18</v>
@@ -2210,34 +2223,34 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>2743</v>
+        <v>2870</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D33">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E33" t="s">
         <v>19</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I33">
         <v>3</v>
       </c>
       <c r="J33">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -2249,7 +2262,7 @@
         <v>18</v>
       </c>
       <c r="N33" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O33" t="s">
         <v>18</v>
@@ -2266,16 +2279,16 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>2736</v>
+        <v>2870</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D34">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E34" t="s">
         <v>19</v>
@@ -2284,16 +2297,16 @@
         <v>19</v>
       </c>
       <c r="G34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I34">
         <v>3</v>
       </c>
       <c r="J34">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -2322,34 +2335,34 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>2729</v>
+        <v>2833</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D35">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E35" t="s">
         <v>19</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G35" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I35">
         <v>3</v>
       </c>
       <c r="J35">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -2378,43 +2391,43 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>2700</v>
+        <v>2821</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D36">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E36" t="s">
         <v>19</v>
       </c>
       <c r="F36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+      <c r="J36">
+        <v>14</v>
+      </c>
+      <c r="K36">
+        <v>6</v>
+      </c>
+      <c r="L36" t="s">
+        <v>18</v>
+      </c>
+      <c r="M36" t="s">
         <v>20</v>
-      </c>
-      <c r="G36" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36">
-        <v>2</v>
-      </c>
-      <c r="I36">
-        <v>3</v>
-      </c>
-      <c r="J36">
-        <v>7</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36" t="s">
-        <v>18</v>
-      </c>
-      <c r="M36" t="s">
-        <v>18</v>
       </c>
       <c r="N36" t="s">
         <v>18</v>
@@ -2434,13 +2447,13 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>2661</v>
+        <v>2821</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D37">
         <v>65</v>
@@ -2449,31 +2462,31 @@
         <v>19</v>
       </c>
       <c r="F37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+      <c r="J37">
+        <v>14</v>
+      </c>
+      <c r="K37">
+        <v>7</v>
+      </c>
+      <c r="L37" t="s">
+        <v>18</v>
+      </c>
+      <c r="M37" t="s">
+        <v>18</v>
+      </c>
+      <c r="N37" t="s">
         <v>20</v>
-      </c>
-      <c r="G37" t="s">
-        <v>19</v>
-      </c>
-      <c r="H37">
-        <v>2</v>
-      </c>
-      <c r="I37">
-        <v>3</v>
-      </c>
-      <c r="J37">
-        <v>7</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37" t="s">
-        <v>18</v>
-      </c>
-      <c r="M37" t="s">
-        <v>18</v>
-      </c>
-      <c r="N37" t="s">
-        <v>18</v>
       </c>
       <c r="O37" t="s">
         <v>18</v>
@@ -2490,37 +2503,37 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>2656</v>
+        <v>2821</v>
       </c>
       <c r="B38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D38">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E38" t="s">
         <v>19</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G38" t="s">
         <v>19</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I38">
         <v>3</v>
       </c>
       <c r="J38">
+        <v>14</v>
+      </c>
+      <c r="K38">
         <v>7</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
       </c>
       <c r="L38" t="s">
         <v>18</v>
@@ -2546,37 +2559,37 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>2656</v>
+        <v>2784</v>
       </c>
       <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
         <v>4</v>
       </c>
-      <c r="C39">
+      <c r="D39">
+        <v>69</v>
+      </c>
+      <c r="E39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+      <c r="J39">
+        <v>14</v>
+      </c>
+      <c r="K39">
         <v>7</v>
-      </c>
-      <c r="D39">
-        <v>70</v>
-      </c>
-      <c r="E39" t="s">
-        <v>19</v>
-      </c>
-      <c r="F39" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" t="s">
-        <v>19</v>
-      </c>
-      <c r="H39">
-        <v>2</v>
-      </c>
-      <c r="I39">
-        <v>3</v>
-      </c>
-      <c r="J39">
-        <v>7</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
       </c>
       <c r="L39" t="s">
         <v>18</v>
@@ -2602,37 +2615,37 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>2650</v>
+        <v>2747</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C40">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E40" t="s">
         <v>19</v>
       </c>
       <c r="F40" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I40">
         <v>3</v>
       </c>
       <c r="J40">
+        <v>14</v>
+      </c>
+      <c r="K40">
         <v>7</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
       </c>
       <c r="L40" t="s">
         <v>18</v>
@@ -2658,7 +2671,7 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>2616</v>
+        <v>2704</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -2667,28 +2680,28 @@
         <v>10</v>
       </c>
       <c r="D41">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="E41" t="s">
         <v>19</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I41">
         <v>3</v>
       </c>
       <c r="J41">
+        <v>14</v>
+      </c>
+      <c r="K41">
         <v>7</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
       </c>
       <c r="L41" t="s">
         <v>18</v>
@@ -2714,37 +2727,37 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>2570</v>
+        <v>2700</v>
       </c>
       <c r="B42">
         <v>2</v>
       </c>
       <c r="C42">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D42">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E42" t="s">
         <v>19</v>
       </c>
       <c r="F42" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I42">
         <v>3</v>
       </c>
       <c r="J42">
+        <v>14</v>
+      </c>
+      <c r="K42">
         <v>7</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
       </c>
       <c r="L42" t="s">
         <v>18</v>
@@ -2770,37 +2783,37 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>2530</v>
+        <v>2696</v>
       </c>
       <c r="B43">
         <v>3</v>
       </c>
       <c r="C43">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>64</v>
+      </c>
+      <c r="E43" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43">
+        <v>3</v>
+      </c>
+      <c r="I43">
+        <v>3</v>
+      </c>
+      <c r="J43">
         <v>14</v>
       </c>
-      <c r="D43">
-        <v>56</v>
-      </c>
-      <c r="E43" t="s">
-        <v>19</v>
-      </c>
-      <c r="F43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" t="s">
-        <v>20</v>
-      </c>
-      <c r="H43">
-        <v>2</v>
-      </c>
-      <c r="I43">
-        <v>3</v>
-      </c>
-      <c r="J43">
+      <c r="K43">
         <v>7</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
       </c>
       <c r="L43" t="s">
         <v>18</v>
@@ -2826,37 +2839,37 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>2522</v>
+        <v>2659</v>
       </c>
       <c r="B44">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C44">
+        <v>10</v>
+      </c>
+      <c r="D44">
+        <v>11</v>
+      </c>
+      <c r="E44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="I44">
+        <v>3</v>
+      </c>
+      <c r="J44">
         <v>14</v>
       </c>
-      <c r="D44">
-        <v>56</v>
-      </c>
-      <c r="E44" t="s">
-        <v>19</v>
-      </c>
-      <c r="F44" t="s">
-        <v>19</v>
-      </c>
-      <c r="G44" t="s">
-        <v>20</v>
-      </c>
-      <c r="H44">
-        <v>2</v>
-      </c>
-      <c r="I44">
-        <v>3</v>
-      </c>
-      <c r="J44">
+      <c r="K44">
         <v>7</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
       </c>
       <c r="L44" t="s">
         <v>18</v>
@@ -2882,37 +2895,37 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>2515</v>
+        <v>2621</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C45">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D45">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="E45" t="s">
         <v>19</v>
       </c>
       <c r="F45" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G45" t="s">
         <v>19</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I45">
         <v>3</v>
       </c>
       <c r="J45">
+        <v>14</v>
+      </c>
+      <c r="K45">
         <v>7</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
       </c>
       <c r="L45" t="s">
         <v>18</v>
@@ -2938,37 +2951,37 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>2478</v>
+        <v>2582</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="E46" t="s">
         <v>19</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G46" t="s">
         <v>19</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I46">
         <v>3</v>
       </c>
       <c r="J46">
+        <v>14</v>
+      </c>
+      <c r="K46">
         <v>7</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
       </c>
       <c r="L46" t="s">
         <v>18</v>
@@ -2994,13 +3007,13 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>2437</v>
+        <v>2576</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D47">
         <v>65</v>
@@ -3009,28 +3022,28 @@
         <v>19</v>
       </c>
       <c r="F47" t="s">
+        <v>21</v>
+      </c>
+      <c r="G47" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47">
+        <v>3</v>
+      </c>
+      <c r="J47">
         <v>20</v>
       </c>
-      <c r="G47" t="s">
-        <v>19</v>
-      </c>
-      <c r="H47">
-        <v>2</v>
-      </c>
-      <c r="I47">
-        <v>3</v>
-      </c>
-      <c r="J47">
+      <c r="K47">
         <v>7</v>
       </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
       <c r="L47" t="s">
         <v>18</v>
       </c>
       <c r="M47" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N47" t="s">
         <v>18</v>
@@ -3050,46 +3063,46 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>2417</v>
+        <v>2576</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D48">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E48" t="s">
         <v>19</v>
       </c>
       <c r="F48" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48">
+        <v>3</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
+      <c r="J48">
+        <v>21</v>
+      </c>
+      <c r="K48">
+        <v>7</v>
+      </c>
+      <c r="L48" t="s">
+        <v>18</v>
+      </c>
+      <c r="M48" t="s">
+        <v>18</v>
+      </c>
+      <c r="N48" t="s">
         <v>20</v>
-      </c>
-      <c r="G48" t="s">
-        <v>19</v>
-      </c>
-      <c r="H48">
-        <v>2</v>
-      </c>
-      <c r="I48">
-        <v>3</v>
-      </c>
-      <c r="J48">
-        <v>7</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48" t="s">
-        <v>18</v>
-      </c>
-      <c r="M48" t="s">
-        <v>18</v>
-      </c>
-      <c r="N48" t="s">
-        <v>18</v>
       </c>
       <c r="O48" t="s">
         <v>18</v>
@@ -3106,7 +3119,7 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>2393</v>
+        <v>2576</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -3115,28 +3128,28 @@
         <v>10</v>
       </c>
       <c r="D49">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="E49" t="s">
         <v>19</v>
       </c>
       <c r="F49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G49" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I49">
         <v>3</v>
       </c>
       <c r="J49">
+        <v>21</v>
+      </c>
+      <c r="K49">
         <v>7</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
       </c>
       <c r="L49" t="s">
         <v>18</v>
@@ -3162,37 +3175,37 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>2354</v>
+        <v>2543</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D50">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="E50" t="s">
         <v>19</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G50" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I50">
         <v>3</v>
       </c>
       <c r="J50">
+        <v>21</v>
+      </c>
+      <c r="K50">
         <v>7</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
       </c>
       <c r="L50" t="s">
         <v>18</v>
@@ -3218,7 +3231,7 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>2307</v>
+        <v>2505</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -3227,28 +3240,28 @@
         <v>10</v>
       </c>
       <c r="D51">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="E51" t="s">
         <v>19</v>
       </c>
       <c r="F51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G51" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I51">
         <v>3</v>
       </c>
       <c r="J51">
+        <v>21</v>
+      </c>
+      <c r="K51">
         <v>7</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
       </c>
       <c r="L51" t="s">
         <v>18</v>
@@ -3274,37 +3287,37 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>2261</v>
+        <v>2462</v>
       </c>
       <c r="B52">
         <v>2</v>
       </c>
       <c r="C52">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D52">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="E52" t="s">
         <v>19</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G52" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I52">
         <v>3</v>
       </c>
       <c r="J52">
+        <v>21</v>
+      </c>
+      <c r="K52">
         <v>7</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
       </c>
       <c r="L52" t="s">
         <v>18</v>
@@ -3330,37 +3343,37 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>2217</v>
+        <v>2432</v>
       </c>
       <c r="B53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D53">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="E53" t="s">
         <v>19</v>
       </c>
       <c r="F53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G53" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I53">
         <v>3</v>
       </c>
       <c r="J53">
+        <v>21</v>
+      </c>
+      <c r="K53">
         <v>7</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
       </c>
       <c r="L53" t="s">
         <v>18</v>
@@ -3386,37 +3399,37 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>2175</v>
+        <v>2385</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C54">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D54">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="E54" t="s">
         <v>19</v>
       </c>
       <c r="F54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G54" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I54">
         <v>3</v>
       </c>
       <c r="J54">
+        <v>21</v>
+      </c>
+      <c r="K54">
         <v>7</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
       </c>
       <c r="L54" t="s">
         <v>18</v>
@@ -3442,37 +3455,37 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>2135</v>
+        <v>2362</v>
       </c>
       <c r="B55">
         <v>2</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D55">
+        <v>43</v>
+      </c>
+      <c r="E55" t="s">
+        <v>19</v>
+      </c>
+      <c r="F55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G55" t="s">
+        <v>21</v>
+      </c>
+      <c r="H55">
+        <v>3</v>
+      </c>
+      <c r="I55">
+        <v>3</v>
+      </c>
+      <c r="J55">
+        <v>21</v>
+      </c>
+      <c r="K55">
         <v>7</v>
-      </c>
-      <c r="E55" t="s">
-        <v>19</v>
-      </c>
-      <c r="F55" t="s">
-        <v>20</v>
-      </c>
-      <c r="G55" t="s">
-        <v>19</v>
-      </c>
-      <c r="H55">
-        <v>2</v>
-      </c>
-      <c r="I55">
-        <v>3</v>
-      </c>
-      <c r="J55">
-        <v>7</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
       </c>
       <c r="L55" t="s">
         <v>18</v>
@@ -3498,7 +3511,7 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>2090</v>
+        <v>2318</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -3507,28 +3520,28 @@
         <v>3</v>
       </c>
       <c r="D56">
+        <v>40</v>
+      </c>
+      <c r="E56" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56" t="s">
+        <v>19</v>
+      </c>
+      <c r="G56" t="s">
+        <v>21</v>
+      </c>
+      <c r="H56">
+        <v>3</v>
+      </c>
+      <c r="I56">
+        <v>3</v>
+      </c>
+      <c r="J56">
+        <v>21</v>
+      </c>
+      <c r="K56">
         <v>7</v>
-      </c>
-      <c r="E56" t="s">
-        <v>19</v>
-      </c>
-      <c r="F56" t="s">
-        <v>20</v>
-      </c>
-      <c r="G56" t="s">
-        <v>19</v>
-      </c>
-      <c r="H56">
-        <v>2</v>
-      </c>
-      <c r="I56">
-        <v>3</v>
-      </c>
-      <c r="J56">
-        <v>7</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
       </c>
       <c r="L56" t="s">
         <v>18</v>
@@ -3554,7 +3567,7 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>2086</v>
+        <v>2315</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -3563,34 +3576,34 @@
         <v>10</v>
       </c>
       <c r="D57">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="E57" t="s">
         <v>19</v>
       </c>
       <c r="F57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G57" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I57">
         <v>3</v>
       </c>
       <c r="J57">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L57" t="s">
         <v>18</v>
       </c>
       <c r="M57" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N57" t="s">
         <v>18</v>
@@ -3610,37 +3623,37 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>2086</v>
+        <v>2309</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C58">
         <v>10</v>
       </c>
       <c r="D58">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="E58" t="s">
         <v>19</v>
       </c>
       <c r="F58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G58" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I58">
         <v>3</v>
       </c>
       <c r="J58">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L58" t="s">
         <v>18</v>
@@ -3649,7 +3662,7 @@
         <v>18</v>
       </c>
       <c r="N58" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="O58" t="s">
         <v>18</v>
@@ -3666,7 +3679,7 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>2080</v>
+        <v>2266</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -3675,7 +3688,7 @@
         <v>10</v>
       </c>
       <c r="D59">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="E59" t="s">
         <v>19</v>
@@ -3684,19 +3697,19 @@
         <v>19</v>
       </c>
       <c r="G59" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I59">
         <v>3</v>
       </c>
       <c r="J59">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L59" t="s">
         <v>18</v>
@@ -3722,16 +3735,16 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>2033</v>
+        <v>2261</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D60">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="E60" t="s">
         <v>19</v>
@@ -3740,25 +3753,25 @@
         <v>19</v>
       </c>
       <c r="G60" t="s">
+        <v>21</v>
+      </c>
+      <c r="H60">
+        <v>3</v>
+      </c>
+      <c r="I60">
+        <v>3</v>
+      </c>
+      <c r="J60">
+        <v>21</v>
+      </c>
+      <c r="K60">
+        <v>13</v>
+      </c>
+      <c r="L60" t="s">
+        <v>18</v>
+      </c>
+      <c r="M60" t="s">
         <v>20</v>
-      </c>
-      <c r="H60">
-        <v>2</v>
-      </c>
-      <c r="I60">
-        <v>3</v>
-      </c>
-      <c r="J60">
-        <v>14</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60" t="s">
-        <v>18</v>
-      </c>
-      <c r="M60" t="s">
-        <v>18</v>
       </c>
       <c r="N60" t="s">
         <v>18</v>
@@ -3778,16 +3791,16 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>1991</v>
+        <v>2261</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D61">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="E61" t="s">
         <v>19</v>
@@ -3796,28 +3809,28 @@
         <v>19</v>
       </c>
       <c r="G61" t="s">
+        <v>21</v>
+      </c>
+      <c r="H61">
+        <v>3</v>
+      </c>
+      <c r="I61">
+        <v>3</v>
+      </c>
+      <c r="J61">
+        <v>21</v>
+      </c>
+      <c r="K61">
+        <v>14</v>
+      </c>
+      <c r="L61" t="s">
+        <v>18</v>
+      </c>
+      <c r="M61" t="s">
+        <v>18</v>
+      </c>
+      <c r="N61" t="s">
         <v>20</v>
-      </c>
-      <c r="H61">
-        <v>2</v>
-      </c>
-      <c r="I61">
-        <v>3</v>
-      </c>
-      <c r="J61">
-        <v>14</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61" t="s">
-        <v>18</v>
-      </c>
-      <c r="M61" t="s">
-        <v>18</v>
-      </c>
-      <c r="N61" t="s">
-        <v>18</v>
       </c>
       <c r="O61" t="s">
         <v>18</v>
@@ -3834,37 +3847,37 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>1950</v>
+        <v>2256</v>
       </c>
       <c r="B62">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D62">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E62" t="s">
         <v>19</v>
       </c>
       <c r="F62" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I62">
         <v>3</v>
       </c>
       <c r="J62">
+        <v>21</v>
+      </c>
+      <c r="K62">
         <v>14</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
       </c>
       <c r="L62" t="s">
         <v>18</v>
@@ -3890,37 +3903,37 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>1943</v>
+        <v>2219</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C63">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D63">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E63" t="s">
         <v>19</v>
       </c>
       <c r="F63" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G63" t="s">
         <v>19</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I63">
         <v>3</v>
       </c>
       <c r="J63">
+        <v>21</v>
+      </c>
+      <c r="K63">
         <v>14</v>
-      </c>
-      <c r="K63">
-        <v>0</v>
       </c>
       <c r="L63" t="s">
         <v>18</v>
@@ -3946,7 +3959,7 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>1920</v>
+        <v>2183</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -3955,28 +3968,28 @@
         <v>10</v>
       </c>
       <c r="D64">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E64" t="s">
         <v>19</v>
       </c>
       <c r="F64" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G64" t="s">
         <v>19</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I64">
         <v>3</v>
       </c>
       <c r="J64">
+        <v>21</v>
+      </c>
+      <c r="K64">
         <v>14</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
       </c>
       <c r="L64" t="s">
         <v>18</v>
@@ -4002,7 +4015,7 @@
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>1914</v>
+        <v>2141</v>
       </c>
       <c r="B65">
         <v>2</v>
@@ -4011,28 +4024,28 @@
         <v>8</v>
       </c>
       <c r="D65">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E65" t="s">
         <v>19</v>
       </c>
       <c r="F65" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G65" t="s">
         <v>19</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J65">
+        <v>21</v>
+      </c>
+      <c r="K65">
         <v>14</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
       </c>
       <c r="L65" t="s">
         <v>18</v>
@@ -4058,37 +4071,37 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>1906</v>
+        <v>2096</v>
       </c>
       <c r="B66">
         <v>3</v>
       </c>
       <c r="C66">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D66">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="E66" t="s">
         <v>19</v>
       </c>
       <c r="F66" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G66" t="s">
         <v>19</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J66">
+        <v>21</v>
+      </c>
+      <c r="K66">
         <v>14</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
       </c>
       <c r="L66" t="s">
         <v>18</v>
@@ -4114,37 +4127,37 @@
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>1859</v>
+        <v>2053</v>
       </c>
       <c r="B67">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E67" t="s">
         <v>19</v>
       </c>
       <c r="F67" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G67" t="s">
         <v>19</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J67">
+        <v>21</v>
+      </c>
+      <c r="K67">
         <v>14</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
       </c>
       <c r="L67" t="s">
         <v>18</v>
@@ -4170,37 +4183,37 @@
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>1853</v>
+        <v>2011</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C68">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D68">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="E68" t="s">
         <v>19</v>
       </c>
       <c r="F68" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G68" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J68">
+        <v>21</v>
+      </c>
+      <c r="K68">
         <v>14</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
       </c>
       <c r="L68" t="s">
         <v>18</v>
@@ -4226,37 +4239,37 @@
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>1806</v>
+        <v>1973</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C69">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E69" t="s">
         <v>19</v>
       </c>
       <c r="F69" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J69">
+        <v>21</v>
+      </c>
+      <c r="K69">
         <v>14</v>
-      </c>
-      <c r="K69">
-        <v>0</v>
       </c>
       <c r="L69" t="s">
         <v>18</v>
@@ -4282,22 +4295,22 @@
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>1800</v>
+        <v>1942</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C70">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D70">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="E70" t="s">
         <v>19</v>
       </c>
       <c r="F70" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G70" t="s">
         <v>19</v>
@@ -4309,11 +4322,11 @@
         <v>3</v>
       </c>
       <c r="J70">
+        <v>21</v>
+      </c>
+      <c r="K70">
         <v>14</v>
       </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
       <c r="L70" t="s">
         <v>18</v>
       </c>
@@ -4321,7 +4334,7 @@
         <v>18</v>
       </c>
       <c r="N70" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="O70" t="s">
         <v>18</v>
@@ -4338,7 +4351,7 @@
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>1793</v>
+        <v>1938</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -4347,34 +4360,34 @@
         <v>10</v>
       </c>
       <c r="D71">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E71" t="s">
         <v>19</v>
       </c>
       <c r="F71" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G71" t="s">
+        <v>19</v>
+      </c>
+      <c r="H71">
+        <v>3</v>
+      </c>
+      <c r="I71">
+        <v>3</v>
+      </c>
+      <c r="J71">
+        <v>27</v>
+      </c>
+      <c r="K71">
+        <v>14</v>
+      </c>
+      <c r="L71" t="s">
+        <v>18</v>
+      </c>
+      <c r="M71" t="s">
         <v>20</v>
-      </c>
-      <c r="H71">
-        <v>3</v>
-      </c>
-      <c r="I71">
-        <v>3</v>
-      </c>
-      <c r="J71">
-        <v>14</v>
-      </c>
-      <c r="K71">
-        <v>0</v>
-      </c>
-      <c r="L71" t="s">
-        <v>18</v>
-      </c>
-      <c r="M71" t="s">
-        <v>18</v>
       </c>
       <c r="N71" t="s">
         <v>18</v>
@@ -4394,46 +4407,46 @@
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>1790</v>
+        <v>1938</v>
       </c>
       <c r="B72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C72">
         <v>10</v>
       </c>
       <c r="D72">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E72" t="s">
         <v>19</v>
       </c>
       <c r="F72" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G72" t="s">
+        <v>19</v>
+      </c>
+      <c r="H72">
+        <v>3</v>
+      </c>
+      <c r="I72">
+        <v>3</v>
+      </c>
+      <c r="J72">
+        <v>28</v>
+      </c>
+      <c r="K72">
+        <v>14</v>
+      </c>
+      <c r="L72" t="s">
+        <v>18</v>
+      </c>
+      <c r="M72" t="s">
+        <v>18</v>
+      </c>
+      <c r="N72" t="s">
         <v>20</v>
-      </c>
-      <c r="H72">
-        <v>3</v>
-      </c>
-      <c r="I72">
-        <v>3</v>
-      </c>
-      <c r="J72">
-        <v>14</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
-      <c r="L72" t="s">
-        <v>18</v>
-      </c>
-      <c r="M72" t="s">
-        <v>18</v>
-      </c>
-      <c r="N72" t="s">
-        <v>18</v>
       </c>
       <c r="O72" t="s">
         <v>18</v>
@@ -4450,7 +4463,7 @@
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>1743</v>
+        <v>1938</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -4459,7 +4472,7 @@
         <v>10</v>
       </c>
       <c r="D73">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="E73" t="s">
         <v>19</v>
@@ -4468,7 +4481,7 @@
         <v>19</v>
       </c>
       <c r="G73" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H73">
         <v>3</v>
@@ -4477,10 +4490,10 @@
         <v>3</v>
       </c>
       <c r="J73">
+        <v>28</v>
+      </c>
+      <c r="K73">
         <v>14</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
       </c>
       <c r="L73" t="s">
         <v>18</v>
@@ -4506,16 +4519,16 @@
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>1700</v>
+        <v>1936</v>
       </c>
       <c r="B74">
         <v>2</v>
       </c>
       <c r="C74">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D74">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="E74" t="s">
         <v>19</v>
@@ -4524,7 +4537,7 @@
         <v>19</v>
       </c>
       <c r="G74" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -4533,10 +4546,10 @@
         <v>3</v>
       </c>
       <c r="J74">
+        <v>28</v>
+      </c>
+      <c r="K74">
         <v>14</v>
-      </c>
-      <c r="K74">
-        <v>0</v>
       </c>
       <c r="L74" t="s">
         <v>18</v>
@@ -4562,16 +4575,16 @@
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>1692</v>
+        <v>1920</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C75">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D75">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E75" t="s">
         <v>19</v>
@@ -4580,7 +4593,7 @@
         <v>19</v>
       </c>
       <c r="G75" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H75">
         <v>3</v>
@@ -4589,16 +4602,16 @@
         <v>3</v>
       </c>
       <c r="J75">
+        <v>28</v>
+      </c>
+      <c r="K75">
         <v>14</v>
       </c>
-      <c r="K75">
-        <v>6</v>
-      </c>
       <c r="L75" t="s">
         <v>18</v>
       </c>
       <c r="M75" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N75" t="s">
         <v>18</v>
@@ -4618,7 +4631,7 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>1692</v>
+        <v>1916</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -4627,7 +4640,7 @@
         <v>10</v>
       </c>
       <c r="D76">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E76" t="s">
         <v>19</v>
@@ -4636,7 +4649,7 @@
         <v>19</v>
       </c>
       <c r="G76" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H76">
         <v>3</v>
@@ -4645,11 +4658,11 @@
         <v>3</v>
       </c>
       <c r="J76">
+        <v>28</v>
+      </c>
+      <c r="K76">
         <v>14</v>
       </c>
-      <c r="K76">
-        <v>7</v>
-      </c>
       <c r="L76" t="s">
         <v>18</v>
       </c>
@@ -4657,7 +4670,7 @@
         <v>18</v>
       </c>
       <c r="N76" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="O76" t="s">
         <v>18</v>
@@ -4674,25 +4687,25 @@
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>1692</v>
+        <v>1909</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C77">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D77">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="E77" t="s">
         <v>19</v>
       </c>
       <c r="F77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G77" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H77">
         <v>3</v>
@@ -4701,10 +4714,10 @@
         <v>3</v>
       </c>
       <c r="J77">
+        <v>28</v>
+      </c>
+      <c r="K77">
         <v>14</v>
-      </c>
-      <c r="K77">
-        <v>7</v>
       </c>
       <c r="L77" t="s">
         <v>18</v>
@@ -4730,25 +4743,25 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>1659</v>
+        <v>1906</v>
       </c>
       <c r="B78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C78">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D78">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="E78" t="s">
         <v>19</v>
       </c>
       <c r="F78" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G78" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H78">
         <v>3</v>
@@ -4757,10 +4770,10 @@
         <v>3</v>
       </c>
       <c r="J78">
+        <v>28</v>
+      </c>
+      <c r="K78">
         <v>14</v>
-      </c>
-      <c r="K78">
-        <v>7</v>
       </c>
       <c r="L78" t="s">
         <v>18</v>
@@ -4786,25 +4799,25 @@
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>1617</v>
+        <v>1902</v>
       </c>
       <c r="B79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C79">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D79">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="E79" t="s">
         <v>19</v>
       </c>
       <c r="F79" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G79" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H79">
         <v>3</v>
@@ -4813,10 +4826,10 @@
         <v>3</v>
       </c>
       <c r="J79">
+        <v>28</v>
+      </c>
+      <c r="K79">
         <v>14</v>
-      </c>
-      <c r="K79">
-        <v>7</v>
       </c>
       <c r="L79" t="s">
         <v>18</v>
@@ -4842,25 +4855,25 @@
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>1613</v>
+        <v>1877</v>
       </c>
       <c r="B80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C80">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D80">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="E80" t="s">
         <v>19</v>
       </c>
       <c r="F80" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G80" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H80">
         <v>3</v>
@@ -4869,10 +4882,10 @@
         <v>3</v>
       </c>
       <c r="J80">
+        <v>28</v>
+      </c>
+      <c r="K80">
         <v>14</v>
-      </c>
-      <c r="K80">
-        <v>7</v>
       </c>
       <c r="L80" t="s">
         <v>18</v>
@@ -4898,7 +4911,7 @@
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>1599</v>
+        <v>1856</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -4907,7 +4920,7 @@
         <v>10</v>
       </c>
       <c r="D81">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="E81" t="s">
         <v>19</v>
@@ -4916,7 +4929,7 @@
         <v>19</v>
       </c>
       <c r="G81" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H81">
         <v>3</v>
@@ -4925,10 +4938,10 @@
         <v>3</v>
       </c>
       <c r="J81">
+        <v>28</v>
+      </c>
+      <c r="K81">
         <v>14</v>
-      </c>
-      <c r="K81">
-        <v>7</v>
       </c>
       <c r="L81" t="s">
         <v>18</v>
@@ -4954,16 +4967,16 @@
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>1554</v>
+        <v>1852</v>
       </c>
       <c r="B82">
         <v>2</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D82">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="E82" t="s">
         <v>19</v>
@@ -4972,7 +4985,7 @@
         <v>19</v>
       </c>
       <c r="G82" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H82">
         <v>3</v>
@@ -4981,10 +4994,10 @@
         <v>3</v>
       </c>
       <c r="J82">
+        <v>28</v>
+      </c>
+      <c r="K82">
         <v>14</v>
-      </c>
-      <c r="K82">
-        <v>7</v>
       </c>
       <c r="L82" t="s">
         <v>18</v>
@@ -5010,16 +5023,16 @@
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>1515</v>
+        <v>1849</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C83">
         <v>10</v>
       </c>
       <c r="D83">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="E83" t="s">
         <v>19</v>
@@ -5028,7 +5041,7 @@
         <v>19</v>
       </c>
       <c r="G83" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H83">
         <v>3</v>
@@ -5037,10 +5050,10 @@
         <v>3</v>
       </c>
       <c r="J83">
+        <v>28</v>
+      </c>
+      <c r="K83">
         <v>14</v>
-      </c>
-      <c r="K83">
-        <v>7</v>
       </c>
       <c r="L83" t="s">
         <v>18</v>
@@ -5066,16 +5079,16 @@
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>1490</v>
+        <v>1846</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C84">
         <v>10</v>
       </c>
       <c r="D84">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E84" t="s">
         <v>19</v>
@@ -5084,19 +5097,19 @@
         <v>19</v>
       </c>
       <c r="G84" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H84">
         <v>3</v>
       </c>
       <c r="I84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J84">
+        <v>28</v>
+      </c>
+      <c r="K84">
         <v>14</v>
-      </c>
-      <c r="K84">
-        <v>7</v>
       </c>
       <c r="L84" t="s">
         <v>18</v>
@@ -5122,16 +5135,16 @@
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>1485</v>
+        <v>1841</v>
       </c>
       <c r="B85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C85">
         <v>10</v>
       </c>
       <c r="D85">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E85" t="s">
         <v>19</v>
@@ -5140,28 +5153,28 @@
         <v>19</v>
       </c>
       <c r="G85" t="s">
+        <v>21</v>
+      </c>
+      <c r="H85">
+        <v>3</v>
+      </c>
+      <c r="I85">
+        <v>2</v>
+      </c>
+      <c r="J85">
+        <v>28</v>
+      </c>
+      <c r="K85">
+        <v>17</v>
+      </c>
+      <c r="L85" t="s">
+        <v>18</v>
+      </c>
+      <c r="M85" t="s">
+        <v>18</v>
+      </c>
+      <c r="N85" t="s">
         <v>20</v>
-      </c>
-      <c r="H85">
-        <v>3</v>
-      </c>
-      <c r="I85">
-        <v>3</v>
-      </c>
-      <c r="J85">
-        <v>14</v>
-      </c>
-      <c r="K85">
-        <v>7</v>
-      </c>
-      <c r="L85" t="s">
-        <v>18</v>
-      </c>
-      <c r="M85" t="s">
-        <v>18</v>
-      </c>
-      <c r="N85" t="s">
-        <v>18</v>
       </c>
       <c r="O85" t="s">
         <v>18</v>
@@ -5178,7 +5191,7 @@
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>1454</v>
+        <v>1830</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -5187,16 +5200,16 @@
         <v>10</v>
       </c>
       <c r="D86">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="E86" t="s">
         <v>19</v>
       </c>
       <c r="F86" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G86" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H86">
         <v>3</v>
@@ -5205,10 +5218,10 @@
         <v>2</v>
       </c>
       <c r="J86">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K86">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="L86" t="s">
         <v>18</v>
@@ -5234,37 +5247,37 @@
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>1408</v>
+        <v>1819</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C87">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D87">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="E87" t="s">
         <v>19</v>
       </c>
       <c r="F87" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G87" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I87">
         <v>2</v>
       </c>
       <c r="J87">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K87">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="L87" t="s">
         <v>18</v>
@@ -5290,37 +5303,37 @@
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>1362</v>
+        <v>1808</v>
       </c>
       <c r="B88">
+        <v>3</v>
+      </c>
+      <c r="C88">
         <v>2</v>
       </c>
-      <c r="C88">
-        <v>5</v>
-      </c>
       <c r="D88">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="E88" t="s">
         <v>19</v>
       </c>
       <c r="F88" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G88" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J88">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K88">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="L88" t="s">
         <v>18</v>
@@ -5346,46 +5359,46 @@
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>1318</v>
+        <v>1800</v>
       </c>
       <c r="B89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C89">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D89">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="E89" t="s">
         <v>19</v>
       </c>
       <c r="F89" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G89" t="s">
+        <v>19</v>
+      </c>
+      <c r="H89">
+        <v>3</v>
+      </c>
+      <c r="I89">
+        <v>3</v>
+      </c>
+      <c r="J89">
+        <v>28</v>
+      </c>
+      <c r="K89">
+        <v>17</v>
+      </c>
+      <c r="L89" t="s">
+        <v>18</v>
+      </c>
+      <c r="M89" t="s">
+        <v>18</v>
+      </c>
+      <c r="N89" t="s">
         <v>20</v>
-      </c>
-      <c r="H89">
-        <v>3</v>
-      </c>
-      <c r="I89">
-        <v>2</v>
-      </c>
-      <c r="J89">
-        <v>14</v>
-      </c>
-      <c r="K89">
-        <v>7</v>
-      </c>
-      <c r="L89" t="s">
-        <v>18</v>
-      </c>
-      <c r="M89" t="s">
-        <v>18</v>
-      </c>
-      <c r="N89" t="s">
-        <v>18</v>
       </c>
       <c r="O89" t="s">
         <v>18</v>
@@ -5402,16 +5415,16 @@
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>1273</v>
+        <v>1800</v>
       </c>
       <c r="B90">
         <v>1</v>
       </c>
       <c r="C90">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D90">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="E90" t="s">
         <v>19</v>
@@ -5420,19 +5433,19 @@
         <v>19</v>
       </c>
       <c r="G90" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H90">
         <v>3</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J90">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K90">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="L90" t="s">
         <v>18</v>
@@ -5458,16 +5471,16 @@
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>1224</v>
+        <v>1761</v>
       </c>
       <c r="B91">
         <v>2</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="E91" t="s">
         <v>19</v>
@@ -5476,19 +5489,19 @@
         <v>19</v>
       </c>
       <c r="G91" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H91">
         <v>3</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J91">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K91">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="L91" t="s">
         <v>18</v>
@@ -5514,16 +5527,16 @@
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>1212</v>
+        <v>1719</v>
       </c>
       <c r="B92">
         <v>3</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="E92" t="s">
         <v>19</v>
@@ -5532,19 +5545,19 @@
         <v>19</v>
       </c>
       <c r="G92" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H92">
         <v>3</v>
       </c>
       <c r="I92">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J92">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K92">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="L92" t="s">
         <v>18</v>
@@ -5570,7 +5583,7 @@
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>1208</v>
+        <v>1709</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -5588,25 +5601,25 @@
         <v>19</v>
       </c>
       <c r="G93" t="s">
+        <v>21</v>
+      </c>
+      <c r="H93">
+        <v>3</v>
+      </c>
+      <c r="I93">
+        <v>3</v>
+      </c>
+      <c r="J93">
+        <v>28</v>
+      </c>
+      <c r="K93">
+        <v>23</v>
+      </c>
+      <c r="L93" t="s">
+        <v>18</v>
+      </c>
+      <c r="M93" t="s">
         <v>20</v>
-      </c>
-      <c r="H93">
-        <v>3</v>
-      </c>
-      <c r="I93">
-        <v>2</v>
-      </c>
-      <c r="J93">
-        <v>14</v>
-      </c>
-      <c r="K93">
-        <v>13</v>
-      </c>
-      <c r="L93" t="s">
-        <v>18</v>
-      </c>
-      <c r="M93" t="s">
-        <v>21</v>
       </c>
       <c r="N93" t="s">
         <v>18</v>
@@ -5626,7 +5639,7 @@
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>1208</v>
+        <v>1709</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -5644,28 +5657,28 @@
         <v>19</v>
       </c>
       <c r="G94" t="s">
+        <v>21</v>
+      </c>
+      <c r="H94">
+        <v>3</v>
+      </c>
+      <c r="I94">
+        <v>3</v>
+      </c>
+      <c r="J94">
+        <v>28</v>
+      </c>
+      <c r="K94">
+        <v>24</v>
+      </c>
+      <c r="L94" t="s">
+        <v>18</v>
+      </c>
+      <c r="M94" t="s">
+        <v>18</v>
+      </c>
+      <c r="N94" t="s">
         <v>20</v>
-      </c>
-      <c r="H94">
-        <v>3</v>
-      </c>
-      <c r="I94">
-        <v>2</v>
-      </c>
-      <c r="J94">
-        <v>14</v>
-      </c>
-      <c r="K94">
-        <v>14</v>
-      </c>
-      <c r="L94" t="s">
-        <v>18</v>
-      </c>
-      <c r="M94" t="s">
-        <v>18</v>
-      </c>
-      <c r="N94" t="s">
-        <v>21</v>
       </c>
       <c r="O94" t="s">
         <v>18</v>
@@ -5682,7 +5695,7 @@
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>1203</v>
+        <v>1704</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -5691,13 +5704,13 @@
         <v>10</v>
       </c>
       <c r="D95">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E95" t="s">
         <v>19</v>
       </c>
       <c r="F95" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G95" t="s">
         <v>19</v>
@@ -5706,13 +5719,13 @@
         <v>3</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J95">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K95">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="L95" t="s">
         <v>18</v>
@@ -5738,22 +5751,22 @@
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>1161</v>
+        <v>1671</v>
       </c>
       <c r="B96">
         <v>2</v>
       </c>
       <c r="C96">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D96">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E96" t="s">
         <v>19</v>
       </c>
       <c r="F96" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G96" t="s">
         <v>19</v>
@@ -5762,13 +5775,13 @@
         <v>3</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J96">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K96">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="L96" t="s">
         <v>18</v>
@@ -5794,22 +5807,22 @@
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>1147</v>
+        <v>1632</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C97">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D97">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="E97" t="s">
         <v>19</v>
       </c>
       <c r="F97" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G97" t="s">
         <v>19</v>
@@ -5818,13 +5831,13 @@
         <v>3</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J97">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K97">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="L97" t="s">
         <v>18</v>
@@ -5850,22 +5863,22 @@
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>1130</v>
+        <v>1595</v>
       </c>
       <c r="B98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D98">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="E98" t="s">
         <v>19</v>
       </c>
       <c r="F98" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G98" t="s">
         <v>19</v>
@@ -5874,13 +5887,13 @@
         <v>3</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J98">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K98">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="L98" t="s">
         <v>18</v>
@@ -5906,22 +5919,22 @@
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>1101</v>
+        <v>1550</v>
       </c>
       <c r="B99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C99">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D99">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="E99" t="s">
         <v>19</v>
       </c>
       <c r="F99" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G99" t="s">
         <v>19</v>
@@ -5930,13 +5943,13 @@
         <v>3</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J99">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K99">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="L99" t="s">
         <v>18</v>
@@ -5962,22 +5975,22 @@
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>1097</v>
+        <v>1542</v>
       </c>
       <c r="B100">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C100">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D100">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="E100" t="s">
         <v>19</v>
       </c>
       <c r="F100" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G100" t="s">
         <v>19</v>
@@ -5986,13 +5999,13 @@
         <v>3</v>
       </c>
       <c r="I100">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J100">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K100">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="L100" t="s">
         <v>18</v>
@@ -6018,22 +6031,22 @@
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>1069</v>
+        <v>1538</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C101">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D101">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="E101" t="s">
         <v>19</v>
       </c>
       <c r="F101" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G101" t="s">
         <v>19</v>
@@ -6042,13 +6055,13 @@
         <v>3</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J101">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K101">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="L101" t="s">
         <v>18</v>
@@ -6074,37 +6087,37 @@
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>1025</v>
+        <v>1530</v>
       </c>
       <c r="B102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C102">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D102">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="E102" t="s">
         <v>19</v>
       </c>
       <c r="F102" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G102" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H102">
         <v>3</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J102">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K102">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="L102" t="s">
         <v>18</v>
@@ -6130,37 +6143,37 @@
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>979</v>
+        <v>1498</v>
       </c>
       <c r="B103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C103">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D103">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="E103" t="s">
         <v>19</v>
       </c>
       <c r="F103" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G103" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H103">
         <v>3</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J103">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K103">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="L103" t="s">
         <v>18</v>
@@ -6186,37 +6199,37 @@
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>937</v>
+        <v>1458</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C104">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D104">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="E104" t="s">
         <v>19</v>
       </c>
       <c r="F104" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G104" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H104">
         <v>3</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J104">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K104">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="L104" t="s">
         <v>18</v>
@@ -6242,37 +6255,37 @@
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>900</v>
+        <v>1418</v>
       </c>
       <c r="B105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C105">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D105">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="E105" t="s">
         <v>19</v>
       </c>
       <c r="F105" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G105" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H105">
         <v>3</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J105">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K105">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="L105" t="s">
         <v>18</v>
@@ -6298,37 +6311,37 @@
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>870</v>
+        <v>1381</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C106">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D106">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="E106" t="s">
         <v>19</v>
       </c>
       <c r="F106" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G106" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J106">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K106">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="L106" t="s">
         <v>18</v>
@@ -6354,43 +6367,43 @@
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>867</v>
+        <v>1378</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C107">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D107">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E107" t="s">
         <v>19</v>
       </c>
       <c r="F107" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G107" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I107">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J107">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="K107">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="L107" t="s">
         <v>18</v>
       </c>
       <c r="M107" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N107" t="s">
         <v>18</v>
@@ -6410,37 +6423,37 @@
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>867</v>
+        <v>1328</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C108">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D108">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E108" t="s">
         <v>19</v>
       </c>
       <c r="F108" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G108" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I108">
         <v>2</v>
       </c>
       <c r="J108">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K108">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="L108" t="s">
         <v>18</v>
@@ -6449,7 +6462,7 @@
         <v>18</v>
       </c>
       <c r="N108" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="O108" t="s">
         <v>18</v>
@@ -6466,7 +6479,7 @@
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>867</v>
+        <v>1297</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -6475,7 +6488,7 @@
         <v>10</v>
       </c>
       <c r="D109">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E109" t="s">
         <v>19</v>
@@ -6484,19 +6497,19 @@
         <v>19</v>
       </c>
       <c r="G109" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I109">
         <v>2</v>
       </c>
       <c r="J109">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K109">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="L109" t="s">
         <v>18</v>
@@ -6522,16 +6535,16 @@
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>827</v>
+        <v>1294</v>
       </c>
       <c r="B110">
         <v>2</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D110">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="E110" t="s">
         <v>19</v>
@@ -6540,19 +6553,19 @@
         <v>19</v>
       </c>
       <c r="G110" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I110">
         <v>2</v>
       </c>
       <c r="J110">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K110">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="L110" t="s">
         <v>18</v>
@@ -6578,16 +6591,16 @@
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>782</v>
+        <v>1264</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C111">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D111">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="E111" t="s">
         <v>19</v>
@@ -6596,19 +6609,19 @@
         <v>19</v>
       </c>
       <c r="G111" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I111">
         <v>2</v>
       </c>
       <c r="J111">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K111">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="L111" t="s">
         <v>18</v>
@@ -6634,16 +6647,16 @@
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>741</v>
+        <v>1217</v>
       </c>
       <c r="B112">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C112">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D112">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E112" t="s">
         <v>19</v>
@@ -6652,19 +6665,19 @@
         <v>19</v>
       </c>
       <c r="G112" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I112">
         <v>2</v>
       </c>
       <c r="J112">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K112">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="L112" t="s">
         <v>18</v>
@@ -6690,37 +6703,37 @@
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>710</v>
+        <v>1210</v>
       </c>
       <c r="B113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C113">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D113">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="E113" t="s">
         <v>19</v>
       </c>
       <c r="F113" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G113" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I113">
         <v>2</v>
       </c>
       <c r="J113">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K113">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="L113" t="s">
         <v>18</v>
@@ -6746,7 +6759,7 @@
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>668</v>
+        <v>1167</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -6755,28 +6768,28 @@
         <v>10</v>
       </c>
       <c r="D114">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E114" t="s">
         <v>19</v>
       </c>
       <c r="F114" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G114" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I114">
         <v>2</v>
       </c>
       <c r="J114">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K114">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="L114" t="s">
         <v>18</v>
@@ -6802,37 +6815,37 @@
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>625</v>
+        <v>1162</v>
       </c>
       <c r="B115">
         <v>2</v>
       </c>
       <c r="C115">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E115" t="s">
         <v>19</v>
       </c>
       <c r="F115" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G115" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I115">
         <v>2</v>
       </c>
       <c r="J115">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K115">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="L115" t="s">
         <v>18</v>
@@ -6858,7 +6871,7 @@
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>590</v>
+        <v>1120</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -6867,28 +6880,28 @@
         <v>10</v>
       </c>
       <c r="D116">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E116" t="s">
         <v>19</v>
       </c>
       <c r="F116" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G116" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I116">
         <v>2</v>
       </c>
       <c r="J116">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K116">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="L116" t="s">
         <v>18</v>
@@ -6914,37 +6927,37 @@
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>584</v>
+        <v>1080</v>
       </c>
       <c r="B117">
         <v>2</v>
       </c>
       <c r="C117">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D117">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E117" t="s">
         <v>19</v>
       </c>
       <c r="F117" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G117" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I117">
         <v>2</v>
       </c>
       <c r="J117">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K117">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="L117" t="s">
         <v>18</v>
@@ -6970,37 +6983,37 @@
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>548</v>
+        <v>1041</v>
       </c>
       <c r="B118">
         <v>3</v>
       </c>
       <c r="C118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D118">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E118" t="s">
         <v>19</v>
       </c>
       <c r="F118" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G118" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I118">
         <v>2</v>
       </c>
       <c r="J118">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K118">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="L118" t="s">
         <v>18</v>
@@ -7026,43 +7039,43 @@
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>539</v>
+        <v>1024</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C119">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D119">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E119" t="s">
         <v>19</v>
       </c>
       <c r="F119" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G119" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I119">
         <v>2</v>
       </c>
       <c r="J119">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K119">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L119" t="s">
         <v>18</v>
       </c>
       <c r="M119" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N119" t="s">
         <v>18</v>
@@ -7082,37 +7095,37 @@
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>539</v>
+        <v>978</v>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C120">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D120">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E120" t="s">
         <v>19</v>
       </c>
       <c r="F120" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G120" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I120">
         <v>2</v>
       </c>
       <c r="J120">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K120">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L120" t="s">
         <v>18</v>
@@ -7121,7 +7134,7 @@
         <v>18</v>
       </c>
       <c r="N120" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="O120" t="s">
         <v>18</v>
@@ -7138,7 +7151,7 @@
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>539</v>
+        <v>971</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -7147,28 +7160,28 @@
         <v>10</v>
       </c>
       <c r="D121">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E121" t="s">
         <v>19</v>
       </c>
       <c r="F121" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G121" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I121">
         <v>2</v>
       </c>
       <c r="J121">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K121">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L121" t="s">
         <v>18</v>
@@ -7194,37 +7207,37 @@
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>501</v>
+        <v>934</v>
       </c>
       <c r="B122">
         <v>2</v>
       </c>
       <c r="C122">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D122">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="E122" t="s">
         <v>19</v>
       </c>
       <c r="F122" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G122" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I122">
         <v>2</v>
       </c>
       <c r="J122">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K122">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L122" t="s">
         <v>18</v>
@@ -7250,37 +7263,37 @@
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>456</v>
+        <v>900</v>
       </c>
       <c r="B123">
         <v>3</v>
       </c>
       <c r="C123">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D123">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="E123" t="s">
         <v>19</v>
       </c>
       <c r="F123" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G123" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I123">
         <v>2</v>
       </c>
       <c r="J123">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K123">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L123" t="s">
         <v>18</v>
@@ -7306,7 +7319,7 @@
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>424</v>
+        <v>896</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -7315,28 +7328,28 @@
         <v>10</v>
       </c>
       <c r="D124">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="E124" t="s">
         <v>19</v>
       </c>
       <c r="F124" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G124" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I124">
         <v>2</v>
       </c>
       <c r="J124">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K124">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L124" t="s">
         <v>18</v>
@@ -7362,37 +7375,37 @@
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>389</v>
+        <v>851</v>
       </c>
       <c r="B125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C125">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D125">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="E125" t="s">
         <v>19</v>
       </c>
       <c r="F125" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G125" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I125">
         <v>2</v>
       </c>
       <c r="J125">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K125">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L125" t="s">
         <v>18</v>
@@ -7418,37 +7431,37 @@
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>349</v>
+        <v>808</v>
       </c>
       <c r="B126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C126">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D126">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="E126" t="s">
         <v>19</v>
       </c>
       <c r="F126" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G126" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I126">
         <v>2</v>
       </c>
       <c r="J126">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K126">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L126" t="s">
         <v>18</v>
@@ -7474,37 +7487,37 @@
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>340</v>
+        <v>808</v>
       </c>
       <c r="B127">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C127">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D127">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E127" t="s">
         <v>19</v>
       </c>
       <c r="F127" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G127" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I127">
         <v>2</v>
       </c>
       <c r="J127">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K127">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L127" t="s">
         <v>18</v>
@@ -7530,16 +7543,16 @@
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>333</v>
+        <v>762</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C128">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D128">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="E128" t="s">
         <v>19</v>
@@ -7548,19 +7561,19 @@
         <v>19</v>
       </c>
       <c r="G128" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J128">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K128">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L128" t="s">
         <v>18</v>
@@ -7586,16 +7599,16 @@
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>321</v>
+        <v>739</v>
       </c>
       <c r="B129">
         <v>1</v>
       </c>
       <c r="C129">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D129">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="E129" t="s">
         <v>19</v>
@@ -7604,19 +7617,19 @@
         <v>19</v>
       </c>
       <c r="G129" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J129">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K129">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L129" t="s">
         <v>18</v>
@@ -7642,16 +7655,16 @@
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>277</v>
+        <v>708</v>
       </c>
       <c r="B130">
         <v>2</v>
       </c>
       <c r="C130">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D130">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="E130" t="s">
         <v>19</v>
@@ -7660,19 +7673,19 @@
         <v>19</v>
       </c>
       <c r="G130" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J130">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K130">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L130" t="s">
         <v>18</v>
@@ -7698,16 +7711,16 @@
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>235</v>
+        <v>703</v>
       </c>
       <c r="B131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D131">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E131" t="s">
         <v>19</v>
@@ -7716,25 +7729,25 @@
         <v>19</v>
       </c>
       <c r="G131" t="s">
+        <v>21</v>
+      </c>
+      <c r="H131">
+        <v>3</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>28</v>
+      </c>
+      <c r="K131">
+        <v>30</v>
+      </c>
+      <c r="L131" t="s">
+        <v>18</v>
+      </c>
+      <c r="M131" t="s">
         <v>20</v>
-      </c>
-      <c r="H131">
-        <v>1</v>
-      </c>
-      <c r="I131">
-        <v>2</v>
-      </c>
-      <c r="J131">
-        <v>21</v>
-      </c>
-      <c r="K131">
-        <v>21</v>
-      </c>
-      <c r="L131" t="s">
-        <v>18</v>
-      </c>
-      <c r="M131" t="s">
-        <v>18</v>
       </c>
       <c r="N131" t="s">
         <v>18</v>
@@ -7754,7 +7767,7 @@
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>227</v>
+        <v>703</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -7763,7 +7776,7 @@
         <v>10</v>
       </c>
       <c r="D132">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E132" t="s">
         <v>19</v>
@@ -7772,28 +7785,28 @@
         <v>19</v>
       </c>
       <c r="G132" t="s">
+        <v>21</v>
+      </c>
+      <c r="H132">
+        <v>3</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>28</v>
+      </c>
+      <c r="K132">
+        <v>31</v>
+      </c>
+      <c r="L132" t="s">
+        <v>18</v>
+      </c>
+      <c r="M132" t="s">
+        <v>18</v>
+      </c>
+      <c r="N132" t="s">
         <v>20</v>
-      </c>
-      <c r="H132">
-        <v>1</v>
-      </c>
-      <c r="I132">
-        <v>2</v>
-      </c>
-      <c r="J132">
-        <v>21</v>
-      </c>
-      <c r="K132">
-        <v>21</v>
-      </c>
-      <c r="L132" t="s">
-        <v>18</v>
-      </c>
-      <c r="M132" t="s">
-        <v>18</v>
-      </c>
-      <c r="N132" t="s">
-        <v>18</v>
       </c>
       <c r="O132" t="s">
         <v>18</v>
@@ -7810,37 +7823,37 @@
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>227</v>
+        <v>699</v>
       </c>
       <c r="B133">
         <v>1</v>
       </c>
       <c r="C133">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D133">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E133" t="s">
         <v>19</v>
       </c>
       <c r="F133" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G133" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J133">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K133">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L133" t="s">
         <v>18</v>
@@ -7866,37 +7879,37 @@
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>183</v>
+        <v>662</v>
       </c>
       <c r="B134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C134">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D134">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E134" t="s">
         <v>19</v>
       </c>
       <c r="F134" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G134" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J134">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K134">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L134" t="s">
         <v>18</v>
@@ -7922,37 +7935,37 @@
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>140</v>
+        <v>631</v>
       </c>
       <c r="B135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C135">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D135">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E135" t="s">
         <v>19</v>
       </c>
       <c r="F135" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G135" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J135">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K135">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L135" t="s">
         <v>18</v>
@@ -7978,37 +7991,37 @@
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>120</v>
+        <v>596</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C136">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D136">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E136" t="s">
         <v>19</v>
       </c>
       <c r="F136" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G136" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J136">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K136">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L136" t="s">
         <v>18</v>
@@ -8034,37 +8047,37 @@
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>114</v>
+        <v>557</v>
       </c>
       <c r="B137">
         <v>1</v>
       </c>
       <c r="C137">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D137">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E137" t="s">
         <v>19</v>
       </c>
       <c r="F137" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G137" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J137">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K137">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L137" t="s">
         <v>18</v>
@@ -8090,37 +8103,37 @@
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>69</v>
+        <v>518</v>
       </c>
       <c r="B138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C138">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D138">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E138" t="s">
         <v>19</v>
       </c>
       <c r="F138" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G138" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J138">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K138">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L138" t="s">
         <v>18</v>
@@ -8146,37 +8159,37 @@
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>21</v>
+        <v>485</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C139">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D139">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E139" t="s">
         <v>19</v>
       </c>
       <c r="F139" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G139" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I139">
         <v>1</v>
       </c>
       <c r="J139">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K139">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L139" t="s">
         <v>18</v>
@@ -8202,37 +8215,37 @@
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>4</v>
+        <v>450</v>
       </c>
       <c r="B140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C140">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D140">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E140" t="s">
         <v>19</v>
       </c>
       <c r="F140" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G140" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K140">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L140" t="s">
         <v>18</v>
@@ -8258,61 +8271,1294 @@
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A141">
+        <v>409</v>
+      </c>
+      <c r="B141">
+        <v>2</v>
+      </c>
+      <c r="C141">
+        <v>9</v>
+      </c>
+      <c r="D141">
+        <v>20</v>
+      </c>
+      <c r="E141" t="s">
+        <v>19</v>
+      </c>
+      <c r="F141" t="s">
+        <v>21</v>
+      </c>
+      <c r="G141" t="s">
+        <v>19</v>
+      </c>
+      <c r="H141">
+        <v>3</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>28</v>
+      </c>
+      <c r="K141">
+        <v>31</v>
+      </c>
+      <c r="L141" t="s">
+        <v>18</v>
+      </c>
+      <c r="M141" t="s">
+        <v>18</v>
+      </c>
+      <c r="N141" t="s">
+        <v>18</v>
+      </c>
+      <c r="O141" t="s">
+        <v>18</v>
+      </c>
+      <c r="P141" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>18</v>
+      </c>
+      <c r="R141" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>369</v>
+      </c>
+      <c r="B142">
+        <v>3</v>
+      </c>
+      <c r="C142">
+        <v>5</v>
+      </c>
+      <c r="D142">
+        <v>16</v>
+      </c>
+      <c r="E142" t="s">
+        <v>19</v>
+      </c>
+      <c r="F142" t="s">
+        <v>21</v>
+      </c>
+      <c r="G142" t="s">
+        <v>19</v>
+      </c>
+      <c r="H142">
+        <v>3</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142">
+        <v>28</v>
+      </c>
+      <c r="K142">
+        <v>31</v>
+      </c>
+      <c r="L142" t="s">
+        <v>18</v>
+      </c>
+      <c r="M142" t="s">
+        <v>18</v>
+      </c>
+      <c r="N142" t="s">
+        <v>18</v>
+      </c>
+      <c r="O142" t="s">
+        <v>18</v>
+      </c>
+      <c r="P142" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>18</v>
+      </c>
+      <c r="R142" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>364</v>
+      </c>
+      <c r="B143">
+        <v>4</v>
+      </c>
+      <c r="C143">
+        <v>5</v>
+      </c>
+      <c r="D143">
+        <v>16</v>
+      </c>
+      <c r="E143" t="s">
+        <v>19</v>
+      </c>
+      <c r="F143" t="s">
+        <v>21</v>
+      </c>
+      <c r="G143" t="s">
+        <v>19</v>
+      </c>
+      <c r="H143">
+        <v>3</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <v>28</v>
+      </c>
+      <c r="K143">
+        <v>31</v>
+      </c>
+      <c r="L143" t="s">
+        <v>18</v>
+      </c>
+      <c r="M143" t="s">
+        <v>18</v>
+      </c>
+      <c r="N143" t="s">
+        <v>18</v>
+      </c>
+      <c r="O143" t="s">
+        <v>18</v>
+      </c>
+      <c r="P143" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>18</v>
+      </c>
+      <c r="R143" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>361</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144">
+        <v>10</v>
+      </c>
+      <c r="D144">
+        <v>65</v>
+      </c>
+      <c r="E144" t="s">
+        <v>19</v>
+      </c>
+      <c r="F144" t="s">
+        <v>21</v>
+      </c>
+      <c r="G144" t="s">
+        <v>19</v>
+      </c>
+      <c r="H144">
+        <v>3</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <v>31</v>
+      </c>
+      <c r="K144">
+        <v>31</v>
+      </c>
+      <c r="L144" t="s">
+        <v>18</v>
+      </c>
+      <c r="M144" t="s">
+        <v>18</v>
+      </c>
+      <c r="N144" t="s">
+        <v>20</v>
+      </c>
+      <c r="O144" t="s">
+        <v>18</v>
+      </c>
+      <c r="P144" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>18</v>
+      </c>
+      <c r="R144" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>361</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="C145">
+        <v>10</v>
+      </c>
+      <c r="D145">
+        <v>75</v>
+      </c>
+      <c r="E145" t="s">
+        <v>19</v>
+      </c>
+      <c r="F145" t="s">
+        <v>19</v>
+      </c>
+      <c r="G145" t="s">
+        <v>21</v>
+      </c>
+      <c r="H145">
+        <v>3</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <v>31</v>
+      </c>
+      <c r="K145">
+        <v>31</v>
+      </c>
+      <c r="L145" t="s">
+        <v>18</v>
+      </c>
+      <c r="M145" t="s">
+        <v>18</v>
+      </c>
+      <c r="N145" t="s">
+        <v>18</v>
+      </c>
+      <c r="O145" t="s">
+        <v>18</v>
+      </c>
+      <c r="P145" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>18</v>
+      </c>
+      <c r="R145" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>317</v>
+      </c>
+      <c r="B146">
+        <v>2</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <v>66</v>
+      </c>
+      <c r="E146" t="s">
+        <v>19</v>
+      </c>
+      <c r="F146" t="s">
+        <v>19</v>
+      </c>
+      <c r="G146" t="s">
+        <v>21</v>
+      </c>
+      <c r="H146">
+        <v>3</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>31</v>
+      </c>
+      <c r="K146">
+        <v>31</v>
+      </c>
+      <c r="L146" t="s">
+        <v>18</v>
+      </c>
+      <c r="M146" t="s">
+        <v>18</v>
+      </c>
+      <c r="N146" t="s">
+        <v>18</v>
+      </c>
+      <c r="O146" t="s">
+        <v>18</v>
+      </c>
+      <c r="P146" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>18</v>
+      </c>
+      <c r="R146" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>297</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147">
+        <v>10</v>
+      </c>
+      <c r="D147">
+        <v>61</v>
+      </c>
+      <c r="E147" t="s">
+        <v>19</v>
+      </c>
+      <c r="F147" t="s">
+        <v>19</v>
+      </c>
+      <c r="G147" t="s">
+        <v>21</v>
+      </c>
+      <c r="H147">
+        <v>3</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147">
+        <v>31</v>
+      </c>
+      <c r="K147">
+        <v>31</v>
+      </c>
+      <c r="L147" t="s">
+        <v>18</v>
+      </c>
+      <c r="M147" t="s">
+        <v>18</v>
+      </c>
+      <c r="N147" t="s">
+        <v>18</v>
+      </c>
+      <c r="O147" t="s">
+        <v>18</v>
+      </c>
+      <c r="P147" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>18</v>
+      </c>
+      <c r="R147" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>261</v>
+      </c>
+      <c r="B148">
+        <v>2</v>
+      </c>
+      <c r="C148">
+        <v>8</v>
+      </c>
+      <c r="D148">
+        <v>59</v>
+      </c>
+      <c r="E148" t="s">
+        <v>19</v>
+      </c>
+      <c r="F148" t="s">
+        <v>19</v>
+      </c>
+      <c r="G148" t="s">
+        <v>21</v>
+      </c>
+      <c r="H148">
+        <v>3</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <v>31</v>
+      </c>
+      <c r="K148">
+        <v>31</v>
+      </c>
+      <c r="L148" t="s">
+        <v>18</v>
+      </c>
+      <c r="M148" t="s">
+        <v>18</v>
+      </c>
+      <c r="N148" t="s">
+        <v>18</v>
+      </c>
+      <c r="O148" t="s">
+        <v>18</v>
+      </c>
+      <c r="P148" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>18</v>
+      </c>
+      <c r="R148" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>253</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149">
+        <v>10</v>
+      </c>
+      <c r="D149">
+        <v>24</v>
+      </c>
+      <c r="E149" t="s">
+        <v>19</v>
+      </c>
+      <c r="F149" t="s">
+        <v>19</v>
+      </c>
+      <c r="G149" t="s">
+        <v>21</v>
+      </c>
+      <c r="H149">
+        <v>3</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <v>31</v>
+      </c>
+      <c r="K149">
+        <v>31</v>
+      </c>
+      <c r="L149" t="s">
+        <v>18</v>
+      </c>
+      <c r="M149" t="s">
+        <v>18</v>
+      </c>
+      <c r="N149" t="s">
+        <v>18</v>
+      </c>
+      <c r="O149" t="s">
+        <v>18</v>
+      </c>
+      <c r="P149" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>18</v>
+      </c>
+      <c r="R149" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>249</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="C150">
+        <v>20</v>
+      </c>
+      <c r="D150">
+        <v>34</v>
+      </c>
+      <c r="E150" t="s">
+        <v>19</v>
+      </c>
+      <c r="F150" t="s">
+        <v>19</v>
+      </c>
+      <c r="G150" t="s">
+        <v>21</v>
+      </c>
+      <c r="H150">
+        <v>3</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <v>31</v>
+      </c>
+      <c r="K150">
+        <v>31</v>
+      </c>
+      <c r="L150" t="s">
+        <v>18</v>
+      </c>
+      <c r="M150" t="s">
+        <v>18</v>
+      </c>
+      <c r="N150" t="s">
+        <v>18</v>
+      </c>
+      <c r="O150" t="s">
+        <v>18</v>
+      </c>
+      <c r="P150" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>18</v>
+      </c>
+      <c r="R150" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>204</v>
+      </c>
+      <c r="B151">
+        <v>2</v>
+      </c>
+      <c r="C151">
+        <v>27</v>
+      </c>
+      <c r="D151">
+        <v>41</v>
+      </c>
+      <c r="E151" t="s">
+        <v>19</v>
+      </c>
+      <c r="F151" t="s">
+        <v>19</v>
+      </c>
+      <c r="G151" t="s">
+        <v>21</v>
+      </c>
+      <c r="H151">
+        <v>3</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <v>31</v>
+      </c>
+      <c r="K151">
+        <v>31</v>
+      </c>
+      <c r="L151" t="s">
+        <v>18</v>
+      </c>
+      <c r="M151" t="s">
+        <v>18</v>
+      </c>
+      <c r="N151" t="s">
+        <v>18</v>
+      </c>
+      <c r="O151" t="s">
+        <v>18</v>
+      </c>
+      <c r="P151" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q151" t="s">
+        <v>18</v>
+      </c>
+      <c r="R151" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>199</v>
+      </c>
+      <c r="B152">
+        <v>3</v>
+      </c>
+      <c r="C152">
+        <v>27</v>
+      </c>
+      <c r="D152">
+        <v>41</v>
+      </c>
+      <c r="E152" t="s">
+        <v>19</v>
+      </c>
+      <c r="F152" t="s">
+        <v>19</v>
+      </c>
+      <c r="G152" t="s">
+        <v>21</v>
+      </c>
+      <c r="H152">
+        <v>3</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152">
+        <v>31</v>
+      </c>
+      <c r="K152">
+        <v>31</v>
+      </c>
+      <c r="L152" t="s">
+        <v>18</v>
+      </c>
+      <c r="M152" t="s">
+        <v>18</v>
+      </c>
+      <c r="N152" t="s">
+        <v>18</v>
+      </c>
+      <c r="O152" t="s">
+        <v>18</v>
+      </c>
+      <c r="P152" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q152" t="s">
+        <v>18</v>
+      </c>
+      <c r="R152" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>194</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="C153">
+        <v>10</v>
+      </c>
+      <c r="D153">
+        <v>11</v>
+      </c>
+      <c r="E153" t="s">
+        <v>19</v>
+      </c>
+      <c r="F153" t="s">
+        <v>19</v>
+      </c>
+      <c r="G153" t="s">
+        <v>21</v>
+      </c>
+      <c r="H153">
+        <v>3</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153">
+        <v>31</v>
+      </c>
+      <c r="K153">
+        <v>31</v>
+      </c>
+      <c r="L153" t="s">
+        <v>18</v>
+      </c>
+      <c r="M153" t="s">
+        <v>18</v>
+      </c>
+      <c r="N153" t="s">
+        <v>18</v>
+      </c>
+      <c r="O153" t="s">
+        <v>18</v>
+      </c>
+      <c r="P153" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q153" t="s">
+        <v>18</v>
+      </c>
+      <c r="R153" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>148</v>
+      </c>
+      <c r="B154">
+        <v>2</v>
+      </c>
+      <c r="C154">
+        <v>5</v>
+      </c>
+      <c r="D154">
+        <v>6</v>
+      </c>
+      <c r="E154" t="s">
+        <v>19</v>
+      </c>
+      <c r="F154" t="s">
+        <v>19</v>
+      </c>
+      <c r="G154" t="s">
+        <v>21</v>
+      </c>
+      <c r="H154">
+        <v>3</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
+      <c r="J154">
+        <v>31</v>
+      </c>
+      <c r="K154">
+        <v>31</v>
+      </c>
+      <c r="L154" t="s">
+        <v>18</v>
+      </c>
+      <c r="M154" t="s">
+        <v>18</v>
+      </c>
+      <c r="N154" t="s">
+        <v>18</v>
+      </c>
+      <c r="O154" t="s">
+        <v>18</v>
+      </c>
+      <c r="P154" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q154" t="s">
+        <v>18</v>
+      </c>
+      <c r="R154" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>130</v>
+      </c>
+      <c r="B155">
+        <v>3</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155">
+        <v>2</v>
+      </c>
+      <c r="E155" t="s">
+        <v>19</v>
+      </c>
+      <c r="F155" t="s">
+        <v>19</v>
+      </c>
+      <c r="G155" t="s">
+        <v>21</v>
+      </c>
+      <c r="H155">
+        <v>2</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <v>31</v>
+      </c>
+      <c r="K155">
+        <v>31</v>
+      </c>
+      <c r="L155" t="s">
+        <v>18</v>
+      </c>
+      <c r="M155" t="s">
+        <v>18</v>
+      </c>
+      <c r="N155" t="s">
+        <v>18</v>
+      </c>
+      <c r="O155" t="s">
+        <v>18</v>
+      </c>
+      <c r="P155" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q155" t="s">
+        <v>18</v>
+      </c>
+      <c r="R155" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>120</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+      <c r="E156" t="s">
+        <v>19</v>
+      </c>
+      <c r="F156" t="s">
+        <v>19</v>
+      </c>
+      <c r="G156" t="s">
+        <v>21</v>
+      </c>
+      <c r="H156">
+        <v>2</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+      <c r="J156">
+        <v>31</v>
+      </c>
+      <c r="K156">
+        <v>31</v>
+      </c>
+      <c r="L156" t="s">
+        <v>18</v>
+      </c>
+      <c r="M156" t="s">
+        <v>18</v>
+      </c>
+      <c r="N156" t="s">
+        <v>18</v>
+      </c>
+      <c r="O156" t="s">
+        <v>18</v>
+      </c>
+      <c r="P156" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q156" t="s">
+        <v>18</v>
+      </c>
+      <c r="R156" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>115</v>
+      </c>
+      <c r="B157">
+        <v>2</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+      <c r="E157" t="s">
+        <v>19</v>
+      </c>
+      <c r="F157" t="s">
+        <v>19</v>
+      </c>
+      <c r="G157" t="s">
+        <v>21</v>
+      </c>
+      <c r="H157">
+        <v>1</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157">
+        <v>31</v>
+      </c>
+      <c r="K157">
+        <v>31</v>
+      </c>
+      <c r="L157" t="s">
+        <v>18</v>
+      </c>
+      <c r="M157" t="s">
+        <v>18</v>
+      </c>
+      <c r="N157" t="s">
+        <v>18</v>
+      </c>
+      <c r="O157" t="s">
+        <v>18</v>
+      </c>
+      <c r="P157" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>18</v>
+      </c>
+      <c r="R157" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>106</v>
+      </c>
+      <c r="B158">
+        <v>3</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+      <c r="E158" t="s">
+        <v>19</v>
+      </c>
+      <c r="F158" t="s">
+        <v>19</v>
+      </c>
+      <c r="G158" t="s">
+        <v>21</v>
+      </c>
+      <c r="H158">
         <v>0</v>
       </c>
-      <c r="B141">
-        <v>1</v>
-      </c>
-      <c r="C141">
+      <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="J158">
+        <v>31</v>
+      </c>
+      <c r="K158">
+        <v>31</v>
+      </c>
+      <c r="L158" t="s">
+        <v>18</v>
+      </c>
+      <c r="M158" t="s">
+        <v>18</v>
+      </c>
+      <c r="N158" t="s">
+        <v>18</v>
+      </c>
+      <c r="O158" t="s">
+        <v>18</v>
+      </c>
+      <c r="P158" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>18</v>
+      </c>
+      <c r="R158" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>58</v>
+      </c>
+      <c r="B159">
+        <v>4</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+      <c r="E159" t="s">
+        <v>19</v>
+      </c>
+      <c r="F159" t="s">
+        <v>19</v>
+      </c>
+      <c r="G159" t="s">
+        <v>21</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>31</v>
+      </c>
+      <c r="K159">
+        <v>31</v>
+      </c>
+      <c r="L159" t="s">
+        <v>18</v>
+      </c>
+      <c r="M159" t="s">
+        <v>18</v>
+      </c>
+      <c r="N159" t="s">
+        <v>18</v>
+      </c>
+      <c r="O159" t="s">
+        <v>18</v>
+      </c>
+      <c r="P159" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q159" t="s">
+        <v>18</v>
+      </c>
+      <c r="R159" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>50</v>
+      </c>
+      <c r="B160">
+        <v>4</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160">
+        <v>1</v>
+      </c>
+      <c r="E160" t="s">
+        <v>19</v>
+      </c>
+      <c r="F160" t="s">
+        <v>19</v>
+      </c>
+      <c r="G160" t="s">
+        <v>21</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>31</v>
+      </c>
+      <c r="K160">
+        <v>31</v>
+      </c>
+      <c r="L160" t="s">
+        <v>18</v>
+      </c>
+      <c r="M160" t="s">
+        <v>18</v>
+      </c>
+      <c r="N160" t="s">
+        <v>18</v>
+      </c>
+      <c r="O160" t="s">
+        <v>18</v>
+      </c>
+      <c r="P160" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q160" t="s">
+        <v>18</v>
+      </c>
+      <c r="R160" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>46</v>
+      </c>
+      <c r="B161">
+        <v>1</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+      <c r="E161" t="s">
+        <v>19</v>
+      </c>
+      <c r="F161" t="s">
+        <v>19</v>
+      </c>
+      <c r="G161" t="s">
+        <v>21</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>31</v>
+      </c>
+      <c r="K161">
+        <v>31</v>
+      </c>
+      <c r="L161" t="s">
+        <v>18</v>
+      </c>
+      <c r="M161" t="s">
+        <v>18</v>
+      </c>
+      <c r="N161" t="s">
+        <v>18</v>
+      </c>
+      <c r="O161" t="s">
+        <v>18</v>
+      </c>
+      <c r="P161" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q161" t="s">
+        <v>18</v>
+      </c>
+      <c r="R161" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>2</v>
+      </c>
+      <c r="B162">
+        <v>2</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+      <c r="E162" t="s">
+        <v>19</v>
+      </c>
+      <c r="F162" t="s">
+        <v>19</v>
+      </c>
+      <c r="G162" t="s">
+        <v>21</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>31</v>
+      </c>
+      <c r="K162">
+        <v>31</v>
+      </c>
+      <c r="L162" t="s">
+        <v>18</v>
+      </c>
+      <c r="M162" t="s">
+        <v>18</v>
+      </c>
+      <c r="N162" t="s">
+        <v>18</v>
+      </c>
+      <c r="O162" t="s">
+        <v>18</v>
+      </c>
+      <c r="P162" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q162" t="s">
+        <v>18</v>
+      </c>
+      <c r="R162" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>0</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
+      </c>
+      <c r="C163">
         <v>10</v>
       </c>
-      <c r="D141">
+      <c r="D163">
         <v>65</v>
       </c>
-      <c r="E141" t="s">
-        <v>19</v>
-      </c>
-      <c r="F141" t="s">
-        <v>19</v>
-      </c>
-      <c r="G141" t="s">
-        <v>20</v>
-      </c>
-      <c r="H141">
-        <v>1</v>
-      </c>
-      <c r="I141">
+      <c r="E163" t="s">
+        <v>19</v>
+      </c>
+      <c r="F163" t="s">
+        <v>19</v>
+      </c>
+      <c r="G163" t="s">
+        <v>21</v>
+      </c>
+      <c r="H163">
         <v>0</v>
       </c>
-      <c r="J141">
-        <v>21</v>
-      </c>
-      <c r="K141">
-        <v>24</v>
-      </c>
-      <c r="L141" t="s">
-        <v>18</v>
-      </c>
-      <c r="M141" t="s">
-        <v>18</v>
-      </c>
-      <c r="N141" t="s">
-        <v>18</v>
-      </c>
-      <c r="O141" t="s">
-        <v>18</v>
-      </c>
-      <c r="P141" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q141" t="s">
-        <v>18</v>
-      </c>
-      <c r="R141" t="s">
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>31</v>
+      </c>
+      <c r="K163">
+        <v>34</v>
+      </c>
+      <c r="L163" t="s">
+        <v>18</v>
+      </c>
+      <c r="M163" t="s">
+        <v>18</v>
+      </c>
+      <c r="N163" t="s">
+        <v>18</v>
+      </c>
+      <c r="O163" t="s">
+        <v>18</v>
+      </c>
+      <c r="P163" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q163" t="s">
+        <v>18</v>
+      </c>
+      <c r="R163" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>